--- a/Mappings.xlsx
+++ b/Mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX360CAK\Documents\DOCTORADO\Tesis\code\Astrea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFB8CB-C3E0-4167-A9E4-7A4A262C2720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AAB681-4FAE-40EA-AB30-BA4723DC754C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="170">
   <si>
     <t>sh:deactivated : xsd:boolean</t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>sh:nodeKind : sh:NodeKind: sh:BlankNode, sh:IRI, sh:Literal sh:BlankNodeOrIRI, sh:BlankNodeOrLiteral and sh:IRIOrLiteral.</t>
-  </si>
-  <si>
-    <t>OWL</t>
-  </si>
-  <si>
-    <t>SHACL</t>
   </si>
   <si>
     <t>Value Type Constraints</t>
@@ -1180,9 +1174,6 @@
     </r>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <r>
       <t>owl:qualifiedMinCardinality</t>
     </r>
@@ -1241,6 +1232,66 @@
       </rPr>
       <t>/owl:withRestrictions/rdf:langRange</t>
     </r>
+  </si>
+  <si>
+    <t>SHACL construct</t>
+  </si>
+  <si>
+    <t>SHACL construct TYPE</t>
+  </si>
+  <si>
+    <t>OWL construct</t>
+  </si>
+  <si>
+    <t>OWL Construct TYPE</t>
+  </si>
+  <si>
+    <t>RDF Schema Features</t>
+  </si>
+  <si>
+    <t>Restricted Cardinality</t>
+  </si>
+  <si>
+    <t>Property Restrictions</t>
+  </si>
+  <si>
+    <t>(In)Equality</t>
+  </si>
+  <si>
+    <t>Class Axioms</t>
+  </si>
+  <si>
+    <t>Boolean Combinations of Class Expressions</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>Filler Information</t>
+  </si>
+  <si>
+    <t>Datatypes</t>
+  </si>
+  <si>
+    <t>Annotation Properties</t>
+  </si>
+  <si>
+    <t>OWL Construct</t>
+  </si>
+  <si>
+    <t>SHACL Construct</t>
+  </si>
+  <si>
+    <t>SHACL Construct TYPE</t>
+  </si>
+  <si>
+    <t>Property Characteristics</t>
+  </si>
+  <si>
+    <t>Class Intersection</t>
+  </si>
+  <si>
+    <t>Keys</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1400,6 +1451,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -1778,642 +1832,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="31">
       <c r="A1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19" customHeight="1">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19" customHeight="1">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
+      <c r="D55" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
+    <sortCondition ref="B2:B55"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" location="SubSetOfConstraintComponent" display="http://datashapes.org/constraints.html - SubSetOfConstraintComponent" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B32" r:id="rId2" location="HasValueWithClassConstraintComponent" display="http://datashapes.org/constraints.html - HasValueWithClassConstraintComponent" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B41" r:id="rId3" location="PrimaryKeyConstraintComponent" display="http://datashapes.org/constraints.html - PrimaryKeyConstraintComponent" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A43" r:id="rId4" location="ch_domain" display="https://www.w3.org/TR/rdf-schema/ - ch_domain" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A45" r:id="rId5" location="ch_comment" display="https://www.w3.org/TR/rdf-schema/ - ch_comment" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C45" r:id="rId1" location="SubSetOfConstraintComponent" display="http://datashapes.org/constraints.html - SubSetOfConstraintComponent" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C44" r:id="rId2" location="HasValueWithClassConstraintComponent" display="http://datashapes.org/constraints.html - HasValueWithClassConstraintComponent" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId3" location="PrimaryKeyConstraintComponent" display="http://datashapes.org/constraints.html - PrimaryKeyConstraintComponent" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A48" r:id="rId4" location="ch_domain" display="https://www.w3.org/TR/rdf-schema/ - ch_domain" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" location="ch_comment" display="https://www.w3.org/TR/rdf-schema/ - ch_comment" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2427,419 +2639,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="4" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" customWidth="1"/>
+    <col min="5" max="5" width="48.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" ht="46.5">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.5">
+      <c r="D3" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mappings.xlsx
+++ b/Mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX360CAK\Documents\DOCTORADO\Tesis\code\Astrea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AAB681-4FAE-40EA-AB30-BA4723DC754C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F106AB-C7D5-4496-B342-FCAC74822F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Onto-shape with spin docs" sheetId="3" r:id="rId1"/>
@@ -26,28 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="170">
-  <si>
-    <t>sh:deactivated : xsd:boolean</t>
-  </si>
-  <si>
-    <t>sh:message : xsd:string or rdf:langString</t>
-  </si>
-  <si>
-    <t>sh:severity : sh:Severity</t>
-  </si>
-  <si>
-    <t>sh:closed : xsd:boolean</t>
-  </si>
-  <si>
-    <t>sh:property : sh:PropertyShape</t>
-  </si>
-  <si>
-    <t>sh:minCount, sh:maxCount : xsd:integer</t>
-  </si>
-  <si>
-    <t>sh:node : sh:NodeShape</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="174">
   <si>
     <t>owl:allValuesFrom</t>
   </si>
@@ -151,48 +130,6 @@
     <t>owl:hasValue</t>
   </si>
   <si>
-    <t>sh:not  sh:Shape</t>
-  </si>
-  <si>
-    <t>sh:or rdf:List</t>
-  </si>
-  <si>
-    <t>sh:and rdf:List</t>
-  </si>
-  <si>
-    <t>sh:xone rdf:List</t>
-  </si>
-  <si>
-    <t>sh:equals : any IRI</t>
-  </si>
-  <si>
-    <t>sh:disjoint : any IRI</t>
-  </si>
-  <si>
-    <t>sh:lessThan : any IRI</t>
-  </si>
-  <si>
-    <t>sh:lessThanOrEquals :  any IRI</t>
-  </si>
-  <si>
-    <t>sh:minLength, sh:maxLength :   xsd:integer</t>
-  </si>
-  <si>
-    <t>sh:pattern : xsd:string</t>
-  </si>
-  <si>
-    <t>sh:languageIn :  xsd:string</t>
-  </si>
-  <si>
-    <t>sh:uniqueLang  : xsd:boolean</t>
-  </si>
-  <si>
-    <t>sh:minExclusive ,sh:maxExclusive : xsd:integer</t>
-  </si>
-  <si>
-    <t>sh:minInclusive, sh:maxInclusive : xsd:integer</t>
-  </si>
-  <si>
     <t>sh:nodeKind : sh:NodeKind: sh:BlankNode, sh:IRI, sh:Literal sh:BlankNodeOrIRI, sh:BlankNodeOrLiteral and sh:IRIOrLiteral.</t>
   </si>
   <si>
@@ -255,17 +192,20 @@
     <t>sh:maxCount 1</t>
   </si>
   <si>
-    <r>
-      <t>sh:maxCount 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on a </t>
+    <t>Value Range Constraints</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:onDatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -273,11 +213,51 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>sh:inversePath</t>
-    </r>
-  </si>
-  <si>
-    <t>Value Range Constraints</t>
+      <t>owl:withRestrictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>xsd:minExclusive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sh:minExclusive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> etc</t>
+    </r>
+  </si>
+  <si>
+    <t>String-based Constraints</t>
   </si>
   <si>
     <r>
@@ -315,7 +295,314 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>xsd:minExclusive</t>
+      <t>xsd:minLength</t>
+    </r>
+  </si>
+  <si>
+    <t>sh:minLength</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:onDatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>owl:withRestrictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>xsd:maxLength</t>
+    </r>
+  </si>
+  <si>
+    <t>sh:maxLength</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:onDatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>owl:withRestrictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>xsd:length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sh:minLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sh:maxLength</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>owl:onDatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>owl:withRestrictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>xsd:pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>sh:pattern</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:onDatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>owl:withRestrictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>rdf:langRange</t>
+    </r>
+  </si>
+  <si>
+    <t>sh:languageIn</t>
+  </si>
+  <si>
+    <t>Property Pair Constraints</t>
+  </si>
+  <si>
+    <t>owl:equivalentProperty</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:propertyDisjointWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>owl:AllDisjointProperties</t>
+    </r>
+  </si>
+  <si>
+    <t>owl:inverseOf</t>
+  </si>
+  <si>
+    <t>dash:subSetOf</t>
+  </si>
+  <si>
+    <t>sh:path</t>
+  </si>
+  <si>
+    <t>Logical Constraints</t>
+  </si>
+  <si>
+    <t>sh:not</t>
+  </si>
+  <si>
+    <t>owl:intersectionOf</t>
+  </si>
+  <si>
+    <t>owl:unionOf</t>
+  </si>
+  <si>
+    <t>sh:or</t>
+  </si>
+  <si>
+    <t>owl:qualifiedMin/MaxCardinality 1</t>
+  </si>
+  <si>
+    <t>sh:xone</t>
+  </si>
+  <si>
+    <t>owl:disjointUnionOf</t>
+  </si>
+  <si>
+    <r>
+      <t>sh:node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sh:or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sh:not</t>
+    </r>
+  </si>
+  <si>
+    <t>Shape-based (structural) Constraints</t>
+  </si>
+  <si>
+    <t>sh:node</t>
+  </si>
+  <si>
+    <t>sh:property</t>
+  </si>
+  <si>
+    <t>sh:qualifiedMinCount 1 or dash:hasValueWithClass</t>
+  </si>
+  <si>
+    <r>
+      <t>owl:qualifiedMinCardinality</t>
     </r>
     <r>
       <rPr>
@@ -329,7 +616,7 @@
   </si>
   <si>
     <r>
-      <t>sh:minExclusive</t>
+      <t>sh:qualifiedMinCount</t>
     </r>
     <r>
       <rPr>
@@ -342,11 +629,20 @@
     </r>
   </si>
   <si>
-    <t>String-based Constraints</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
+    <t>Other Constraints</t>
+  </si>
+  <si>
+    <t>sh:hasValue</t>
+  </si>
+  <si>
+    <t>owl:oneOf</t>
+  </si>
+  <si>
+    <t>owl:ReflexiveProperty</t>
+  </si>
+  <si>
+    <r>
+      <t>sh:not</t>
     </r>
     <r>
       <rPr>
@@ -363,16 +659,50 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>owl:withRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
+      <t>sh:disjoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a node shape</t>
+    </r>
+  </si>
+  <si>
+    <t>owl:IrreflexiveProperty</t>
+  </si>
+  <si>
+    <r>
+      <t>sh:disjoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a node shape</t>
+    </r>
+  </si>
+  <si>
+    <t>owl:AsymmetricProperty</t>
+  </si>
+  <si>
+    <r>
+      <t>sh:path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with </t>
     </r>
     <r>
       <rPr>
@@ -380,443 +710,6 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>xsd:minLength</t>
-    </r>
-  </si>
-  <si>
-    <t>sh:minLength</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:withRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>xsd:maxLength</t>
-    </r>
-  </si>
-  <si>
-    <t>sh:maxLength</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:withRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>xsd:length</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>sh:minLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>sh:maxLength</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:withRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>xsd:pattern</t>
-    </r>
-  </si>
-  <si>
-    <t>sh:pattern</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:withRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>rdf:langRange</t>
-    </r>
-  </si>
-  <si>
-    <t>sh:languageIn</t>
-  </si>
-  <si>
-    <t>Property Pair Constraints</t>
-  </si>
-  <si>
-    <t>owl:equivalentProperty</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:propertyDisjointWith</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:AllDisjointProperties</t>
-    </r>
-  </si>
-  <si>
-    <t>owl:inverseOf</t>
-  </si>
-  <si>
-    <t>dash:subSetOf</t>
-  </si>
-  <si>
-    <t>sh:path</t>
-  </si>
-  <si>
-    <t>Logical Constraints</t>
-  </si>
-  <si>
-    <t>sh:not</t>
-  </si>
-  <si>
-    <t>owl:intersectionOf</t>
-  </si>
-  <si>
-    <t>owl:unionOf</t>
-  </si>
-  <si>
-    <t>sh:or</t>
-  </si>
-  <si>
-    <t>owl:qualifiedMin/MaxCardinality 1</t>
-  </si>
-  <si>
-    <t>sh:xone</t>
-  </si>
-  <si>
-    <t>owl:disjointUnionOf</t>
-  </si>
-  <si>
-    <r>
-      <t>sh:node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>sh:or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>sh:not</t>
-    </r>
-  </si>
-  <si>
-    <t>Shape-based (structural) Constraints</t>
-  </si>
-  <si>
-    <r>
-      <t>rdfs:subClassOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:equivalentClass</t>
-    </r>
-  </si>
-  <si>
-    <t>sh:node</t>
-  </si>
-  <si>
-    <t>sh:property</t>
-  </si>
-  <si>
-    <t>sh:qualifiedMinCount 1 or dash:hasValueWithClass</t>
-  </si>
-  <si>
-    <r>
-      <t>owl:qualifiedMinCardinality</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>sh:qualifiedMinCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> etc</t>
-    </r>
-  </si>
-  <si>
-    <t>Other Constraints</t>
-  </si>
-  <si>
-    <t>sh:hasValue</t>
-  </si>
-  <si>
-    <t>owl:oneOf</t>
-  </si>
-  <si>
-    <t>owl:ReflexiveProperty</t>
-  </si>
-  <si>
-    <r>
-      <t>sh:not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>sh:disjoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> in a node shape</t>
-    </r>
-  </si>
-  <si>
-    <t>owl:IrreflexiveProperty</t>
-  </si>
-  <si>
-    <r>
-      <t>sh:disjoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> in a node shape</t>
-    </r>
-  </si>
-  <si>
-    <t>owl:AsymmetricProperty</t>
-  </si>
-  <si>
-    <r>
-      <t>sh:path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -836,51 +729,9 @@
     <t>dash:uriStart</t>
   </si>
   <si>
-    <r>
-      <t>owl:sameAs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:differentFrom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>owl:AllDifferent</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">owl:complementOf	</t>
   </si>
   <si>
-    <t>owl:minCardinality, owl:maxCardinality</t>
-  </si>
-  <si>
     <t xml:space="preserve"> String-based Constraints</t>
   </si>
   <si>
@@ -896,18 +747,12 @@
     <t>Other Constraint</t>
   </si>
   <si>
-    <t>sh:closed, sh:ignoredProperties</t>
-  </si>
-  <si>
     <t>owl:Class</t>
   </si>
   <si>
     <t xml:space="preserve">sh:class </t>
   </si>
   <si>
-    <t>sh:datatype : rdfs:Resource</t>
-  </si>
-  <si>
     <t>owl:Datatype</t>
   </si>
   <si>
@@ -936,9 +781,6 @@
   </si>
   <si>
     <t>rdfs:Property</t>
-  </si>
-  <si>
-    <t>sh:qualifiedValueShape, sh:qualifiedMinCount, sh:qualifiedMaxCount :  xsd:integer</t>
   </si>
   <si>
     <t>rdfs:label / sh:Description</t>
@@ -1175,17 +1017,17 @@
   </si>
   <si>
     <r>
-      <t>owl:qualifiedMinCardinality</t>
+      <t>owl:onDatatype</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> etc</t>
+      <t>/owl:withRestrictions/xsd:pattern</t>
     </r>
   </si>
   <si>
@@ -1200,36 +1042,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/owl:withRestrictions/xsd:length</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/owl:withRestrictions/xsd:pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>owl:onDatatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>/owl:withRestrictions/rdf:langRange</t>
     </r>
   </si>
@@ -1292,13 +1104,115 @@
   </si>
   <si>
     <t>Keys</t>
+  </si>
+  <si>
+    <t>owl:sameAs</t>
+  </si>
+  <si>
+    <t>owl:AllDifferent</t>
+  </si>
+  <si>
+    <t> owl:differentFrom</t>
+  </si>
+  <si>
+    <t>sh:maxCount 1 on a sh:inversePath</t>
+  </si>
+  <si>
+    <t>sh:node, sh:property</t>
+  </si>
+  <si>
+    <t>owl:equivalentClass</t>
+  </si>
+  <si>
+    <t>rdfs:subClassOf</t>
+  </si>
+  <si>
+    <t>sh:minExclusive</t>
+  </si>
+  <si>
+    <t>sh:maxInclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:maxLength </t>
+  </si>
+  <si>
+    <t>owl:onDatatype/owl:withRestrictions/xsd:maxLength</t>
+  </si>
+  <si>
+    <t>owl:onDatatype/owl:withRestrictions/xsd:minLength</t>
+  </si>
+  <si>
+    <t>sh:datatype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:uniqueLang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:equals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:disjoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:lessThan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:lessThanOrEquals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:xone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:deactivated </t>
+  </si>
+  <si>
+    <t>sh:message</t>
+  </si>
+  <si>
+    <t>sh:severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:closed </t>
+  </si>
+  <si>
+    <t>sh:qualifiedMinCount</t>
+  </si>
+  <si>
+    <t>sh:qualifiedMaxCount</t>
+  </si>
+  <si>
+    <t>sh:qualifiedValueShape</t>
+  </si>
+  <si>
+    <t>owl:qualifiedMinCardinality </t>
+  </si>
+  <si>
+    <t>owl:qualifiedMaxCardinality </t>
+  </si>
+  <si>
+    <t>owl:qualifiedCardinality </t>
+  </si>
+  <si>
+    <t>sh:ignoredProperties</t>
+  </si>
+  <si>
+    <t>sh:closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1369,6 +1283,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1428,7 +1349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1454,6 +1375,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -1832,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1848,702 +1774,702 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31">
       <c r="A1" s="4" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
+      <c r="A14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19" customHeight="1">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
+      <c r="A48" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>16</v>
+      <c r="A49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2551,81 +2477,95 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
         <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
-    <sortCondition ref="B2:B55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
+    <sortCondition ref="B2:B56"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C45" r:id="rId1" location="SubSetOfConstraintComponent" display="http://datashapes.org/constraints.html - SubSetOfConstraintComponent" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C44" r:id="rId2" location="HasValueWithClassConstraintComponent" display="http://datashapes.org/constraints.html - HasValueWithClassConstraintComponent" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C19" r:id="rId3" location="PrimaryKeyConstraintComponent" display="http://datashapes.org/constraints.html - PrimaryKeyConstraintComponent" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A48" r:id="rId4" location="ch_domain" display="https://www.w3.org/TR/rdf-schema/ - ch_domain" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" location="ch_comment" display="https://www.w3.org/TR/rdf-schema/ - ch_comment" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C46" r:id="rId1" location="SubSetOfConstraintComponent" display="http://datashapes.org/constraints.html - SubSetOfConstraintComponent" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C45" r:id="rId2" location="HasValueWithClassConstraintComponent" display="http://datashapes.org/constraints.html - HasValueWithClassConstraintComponent" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C21" r:id="rId3" location="PrimaryKeyConstraintComponent" display="http://datashapes.org/constraints.html - PrimaryKeyConstraintComponent" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A49" r:id="rId4" location="ch_domain" display="https://www.w3.org/TR/rdf-schema/ - ch_domain" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" location="ch_comment" display="https://www.w3.org/TR/rdf-schema/ - ch_comment" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2639,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -2656,506 +2596,576 @@
   <sheetData>
     <row r="1" spans="1:5" ht="46.5">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="46.5">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>148</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="31">
+      <c r="A9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31">
       <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
+      <c r="A11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>119</v>
+      <c r="A23" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>101</v>
+      <c r="A24" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>37</v>
+      <c r="A25" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>126</v>
+      <c r="A26" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>127</v>
+      <c r="A27" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>0</v>
+      <c r="A31" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>1</v>
+      <c r="A32" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>2</v>
+      <c r="A33" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>3</v>
+      <c r="A34" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="C39" s="3"/>
+      <c r="A39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="3"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="C41" s="3"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
